--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Sarah Nagy Shaker Abdelmassih</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سوسن محمد صلاح رشوان محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sawsan Mohamed Salah Rashwan</x:t>
   </x:si>
   <x:si>
     <x:t>1210278</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45911.9780641551</x:v>
+        <x:v>45927.8986866088</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45911.9780641551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أية وائل مصطفي سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAyah Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210231</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +645,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.5214450232</x:v>
+        <x:v>45928.4891341435</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -668,7 +677,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6827037037</x:v>
+        <x:v>45906.5214450232</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -700,7 +709,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.5204099537</x:v>
+        <x:v>45906.6827037037</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -732,7 +741,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.8986866088</x:v>
+        <x:v>45906.5204099537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -764,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45911.9780641551</x:v>
+        <x:v>45927.8986866088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45911.9780641551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Mayar Ahmed Ahmed Sayed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران هشام عبد السميع سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran hisham abdulsamei  soliman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200300</x:t>
   </x:si>
   <x:si>
@@ -130,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Mohamed Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا ساهر انور عبدالهادي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YARA SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1210326</x:t>
@@ -254,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -965,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45928.8847474537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1032,70 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45928.9255702546</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>ِAyah Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينب حامد موسي سيد احمد عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeinab Hamed Moussa Sayed Ahmed Ashour</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200946</x:t>
   </x:si>
   <x:si>
@@ -58,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Zeinab Mohamed Mohamed Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره ناجي شاكر عبد المسيح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarah Nagy Shaker Abdelmassih</x:t>
   </x:si>
   <x:si>
     <x:t>1210241</x:t>
@@ -272,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -581,7 +563,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.790625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.940625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.350625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -695,7 +677,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.5214450232</x:v>
+        <x:v>45906.6827037037</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -727,7 +709,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6827037037</x:v>
+        <x:v>45927.8986866088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -759,7 +741,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.5204099537</x:v>
+        <x:v>45911.9780641551</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -791,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.8986866088</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45911.9780641551</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45928.8847474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.8847474537</x:v>
+        <x:v>45928.9255702546</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +997,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1032,70 +1014,6 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20">
-      <x:c r="A14" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E14" s="3">
-        <x:v>45928.9255702546</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s"/>
-      <x:c r="G14" s="2" t="s"/>
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="2" t="s"/>
-      <x:c r="K14" s="2" t="s"/>
-      <x:c r="L14" s="2" t="s"/>
-      <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="2" t="s"/>
-      <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="2" t="s"/>
-      <x:c r="Q14" s="2" t="s"/>
-      <x:c r="R14" s="2" t="s"/>
-      <x:c r="S14" s="2" t="s"/>
-      <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45906.6666998495</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>ِAyah Wael Mostafa Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم ايمن احمد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
   </x:si>
   <x:si>
     <x:t>1200946</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -677,7 +686,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6827037037</x:v>
+        <x:v>45934.6756980671</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -709,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.8986866088</x:v>
+        <x:v>45906.6827037037</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -741,7 +750,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45911.9780641551</x:v>
+        <x:v>45927.8986866088</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45911.9780641551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.8847474537</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45928.8847474537</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.9255702546</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45928.9255702546</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS440_Tutorial-35217.xlsx
+++ b/downloaded_files/ARCS440_Tutorial-35217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>ِAyah Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يوسف عبد الحكيم السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED YOUSSEF ABDELHAKIM EL SAYED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210211</x:t>
   </x:si>
   <x:si>
@@ -103,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210315</x:t>
@@ -263,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -686,7 +704,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45934.6756980671</x:v>
+        <x:v>45938.4621002662</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -718,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6827037037</x:v>
+        <x:v>45934.6756980671</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -750,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.8986866088</x:v>
+        <x:v>45906.6827037037</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45911.9780641551</x:v>
+        <x:v>45927.8986866088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652200231</x:v>
+        <x:v>45911.9780641551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.6652200231</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.8847474537</x:v>
+        <x:v>45938.4126286227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4150191319</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.9255702546</x:v>
+        <x:v>45928.8847474537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4150191319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1073,70 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45928.9255702546</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
